--- a/resources/top_apps/top5_apks_metadata/run_time_estimates.xlsx
+++ b/resources/top_apps/top5_apks_metadata/run_time_estimates.xlsx
@@ -500,7 +500,7 @@
   <dimension ref="B2:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,27 +565,27 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <f>B6*C6/60*$D$2</f>
+        <f t="shared" ref="E6:E11" si="0">B6*C6/60*$D$2</f>
         <v>8.48</v>
       </c>
       <c r="F6" s="2">
-        <f>E6/$D$3</f>
+        <f t="shared" ref="F6:F11" si="1">E6/$D$3</f>
         <v>0.94222222222222229</v>
       </c>
       <c r="G6" s="5">
-        <f>_xlfn.CEILING.MATH((B6/D6))</f>
+        <f t="shared" ref="G6:G11" si="2">_xlfn.CEILING.MATH((B6/D6))</f>
         <v>8</v>
       </c>
       <c r="H6" s="2">
-        <f>G6*C6/60*$D$2</f>
+        <f t="shared" ref="H6:H11" si="3">G6*C6/60*$D$2</f>
         <v>8.48</v>
       </c>
       <c r="I6" s="2">
-        <f>H6/$D$3</f>
+        <f t="shared" ref="I6:I11" si="4">H6/$D$3</f>
         <v>0.94222222222222229</v>
       </c>
       <c r="J6" s="5">
-        <f>_xlfn.CEILING.MATH(I6)</f>
+        <f t="shared" ref="J6:J11" si="5">_xlfn.CEILING.MATH(I6)</f>
         <v>1</v>
       </c>
       <c r="K6" t="s">
@@ -603,27 +603,27 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <f>B7*C7/60*$D$2</f>
+        <f t="shared" si="0"/>
         <v>8.6920000000000002</v>
       </c>
       <c r="F7" s="2">
-        <f>E7/$D$3</f>
+        <f t="shared" si="1"/>
         <v>0.96577777777777785</v>
       </c>
       <c r="G7" s="5">
-        <f>_xlfn.CEILING.MATH((B7/D7))</f>
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="H7" s="2">
-        <f>G7*C7/60*$D$2</f>
+        <f t="shared" si="3"/>
         <v>8.6920000000000002</v>
       </c>
       <c r="I7" s="2">
-        <f>H7/$D$3</f>
+        <f t="shared" si="4"/>
         <v>0.96577777777777785</v>
       </c>
       <c r="J7" s="5">
-        <f>_xlfn.CEILING.MATH(I7)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K7" t="s">
@@ -641,27 +641,27 @@
         <v>3</v>
       </c>
       <c r="E8" s="2">
-        <f>B8*C8/60*$D$2</f>
+        <f t="shared" si="0"/>
         <v>25.44</v>
       </c>
       <c r="F8" s="2">
-        <f>E8/$D$3</f>
+        <f t="shared" si="1"/>
         <v>2.8266666666666667</v>
       </c>
       <c r="G8" s="5">
-        <f>_xlfn.CEILING.MATH((B8/D8))</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H8" s="2">
-        <f>G8*C8/60*$D$2</f>
+        <f t="shared" si="3"/>
         <v>8.48</v>
       </c>
       <c r="I8" s="2">
-        <f>H8/$D$3</f>
+        <f t="shared" si="4"/>
         <v>0.94222222222222229</v>
       </c>
       <c r="J8" s="5">
-        <f>_xlfn.CEILING.MATH(I8)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K8" t="s">
@@ -679,27 +679,27 @@
         <v>3</v>
       </c>
       <c r="E9" s="2">
-        <f>B9*C9/60*$D$2</f>
+        <f t="shared" si="0"/>
         <v>26.076000000000004</v>
       </c>
       <c r="F9" s="2">
-        <f>E9/$D$3</f>
+        <f t="shared" si="1"/>
         <v>2.897333333333334</v>
       </c>
       <c r="G9" s="5">
-        <f>_xlfn.CEILING.MATH((B9/D9))</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="H9" s="2">
-        <f>G9*C9/60*$D$2</f>
+        <f t="shared" si="3"/>
         <v>8.6920000000000002</v>
       </c>
       <c r="I9" s="2">
-        <f>H9/$D$3</f>
+        <f t="shared" si="4"/>
         <v>0.96577777777777785</v>
       </c>
       <c r="J9" s="5">
-        <f>_xlfn.CEILING.MATH(I9)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K9" t="s">
@@ -717,27 +717,27 @@
         <v>3</v>
       </c>
       <c r="E10" s="2">
-        <f>B10*C10/60*$D$2</f>
+        <f t="shared" si="0"/>
         <v>104.67500000000001</v>
       </c>
       <c r="F10" s="2">
-        <f>E10/$D$3</f>
+        <f t="shared" si="1"/>
         <v>11.630555555555556</v>
       </c>
       <c r="G10" s="5">
-        <f>_xlfn.CEILING.MATH((B10/D10))</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="H10" s="2">
-        <f>G10*C10/60*$D$2</f>
+        <f t="shared" si="3"/>
         <v>35.774999999999999</v>
       </c>
       <c r="I10" s="2">
-        <f>H10/$D$3</f>
+        <f t="shared" si="4"/>
         <v>3.9749999999999996</v>
       </c>
       <c r="J10" s="5">
-        <f>_xlfn.CEILING.MATH(I10)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K10" t="s">
@@ -755,27 +755,27 @@
         <v>3</v>
       </c>
       <c r="E11" s="2">
-        <f>B11*C11/60*$D$2</f>
+        <f t="shared" si="0"/>
         <v>130.38</v>
       </c>
       <c r="F11" s="2">
-        <f>E11/$D$3</f>
+        <f t="shared" si="1"/>
         <v>14.486666666666666</v>
       </c>
       <c r="G11" s="5">
-        <f>_xlfn.CEILING.MATH((B11/D11))</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="H11" s="2">
-        <f>G11*C11/60*$D$2</f>
+        <f t="shared" si="3"/>
         <v>43.46</v>
       </c>
       <c r="I11" s="2">
-        <f>H11/$D$3</f>
+        <f t="shared" si="4"/>
         <v>4.8288888888888888</v>
       </c>
       <c r="J11" s="5">
-        <f>_xlfn.CEILING.MATH(I11)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K11" t="s">
@@ -807,27 +807,27 @@
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <f>B13*C13/60*$D$2</f>
+        <f t="shared" ref="E13:E28" si="6">B13*C13/60*$D$2</f>
         <v>83.740000000000009</v>
       </c>
       <c r="F13" s="2">
-        <f>E13/$D$3</f>
+        <f t="shared" ref="F13:F28" si="7">E13/$D$3</f>
         <v>9.3044444444444458</v>
       </c>
       <c r="G13" s="5">
-        <f>_xlfn.CEILING.MATH((B13/D13))</f>
+        <f t="shared" ref="G13:G28" si="8">_xlfn.CEILING.MATH((B13/D13))</f>
         <v>79</v>
       </c>
       <c r="H13" s="2">
-        <f>G13*C13/60*$D$2</f>
+        <f t="shared" ref="H13:H28" si="9">G13*C13/60*$D$2</f>
         <v>83.740000000000009</v>
       </c>
       <c r="I13" s="2">
-        <f>H13/$D$3</f>
+        <f t="shared" ref="I13:I28" si="10">H13/$D$3</f>
         <v>9.3044444444444458</v>
       </c>
       <c r="J13" s="5">
-        <f>_xlfn.CEILING.MATH(I13)</f>
+        <f t="shared" ref="J13:J28" si="11">_xlfn.CEILING.MATH(I13)</f>
         <v>10</v>
       </c>
     </row>
@@ -842,27 +842,27 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <f>B14*C14/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>130.38</v>
       </c>
       <c r="F14" s="2">
-        <f>E14/$D$3</f>
+        <f t="shared" si="7"/>
         <v>14.486666666666666</v>
       </c>
       <c r="G14" s="5">
-        <f>_xlfn.CEILING.MATH((B14/D14))</f>
+        <f t="shared" si="8"/>
         <v>123</v>
       </c>
       <c r="H14" s="2">
-        <f>G14*C14/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>130.38</v>
       </c>
       <c r="I14" s="2">
-        <f>H14/$D$3</f>
+        <f t="shared" si="10"/>
         <v>14.486666666666666</v>
       </c>
       <c r="J14" s="5">
-        <f>_xlfn.CEILING.MATH(I14)</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
@@ -877,27 +877,27 @@
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <f>B15*C15/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>167.48000000000002</v>
       </c>
       <c r="F15" s="2">
-        <f>E15/$D$3</f>
+        <f t="shared" si="7"/>
         <v>18.608888888888892</v>
       </c>
       <c r="G15" s="5">
-        <f>_xlfn.CEILING.MATH((B15/D15))</f>
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
       <c r="H15" s="2">
-        <f>G15*C15/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>167.48000000000002</v>
       </c>
       <c r="I15" s="2">
-        <f>H15/$D$3</f>
+        <f t="shared" si="10"/>
         <v>18.608888888888892</v>
       </c>
       <c r="J15" s="5">
-        <f>_xlfn.CEILING.MATH(I15)</f>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
@@ -912,27 +912,27 @@
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <f>B16*C16/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>260.76</v>
       </c>
       <c r="F16" s="2">
-        <f>E16/$D$3</f>
+        <f t="shared" si="7"/>
         <v>28.973333333333333</v>
       </c>
       <c r="G16" s="5">
-        <f>_xlfn.CEILING.MATH((B16/D16))</f>
+        <f t="shared" si="8"/>
         <v>123</v>
       </c>
       <c r="H16" s="2">
-        <f>G16*C16/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>260.76</v>
       </c>
       <c r="I16" s="2">
-        <f>H16/$D$3</f>
+        <f t="shared" si="10"/>
         <v>28.973333333333333</v>
       </c>
       <c r="J16" s="5">
-        <f>_xlfn.CEILING.MATH(I16)</f>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
     </row>
@@ -947,27 +947,27 @@
         <v>2</v>
       </c>
       <c r="E17" s="2">
-        <f>B17*C17/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>83.740000000000009</v>
       </c>
       <c r="F17" s="2">
-        <f>E17/$D$3</f>
+        <f t="shared" si="7"/>
         <v>9.3044444444444458</v>
       </c>
       <c r="G17" s="5">
-        <f>_xlfn.CEILING.MATH((B17/D17))</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="H17" s="2">
-        <f>G17*C17/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>42.400000000000006</v>
       </c>
       <c r="I17" s="2">
-        <f>H17/$D$3</f>
+        <f t="shared" si="10"/>
         <v>4.7111111111111121</v>
       </c>
       <c r="J17" s="5">
-        <f>_xlfn.CEILING.MATH(I17)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
@@ -982,27 +982,27 @@
         <v>2</v>
       </c>
       <c r="E18" s="2">
-        <f>B18*C18/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>130.38</v>
       </c>
       <c r="F18" s="2">
-        <f>E18/$D$3</f>
+        <f t="shared" si="7"/>
         <v>14.486666666666666</v>
       </c>
       <c r="G18" s="5">
-        <f>_xlfn.CEILING.MATH((B18/D18))</f>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="H18" s="2">
-        <f>G18*C18/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>65.72</v>
       </c>
       <c r="I18" s="2">
-        <f>H18/$D$3</f>
+        <f t="shared" si="10"/>
         <v>7.3022222222222224</v>
       </c>
       <c r="J18" s="5">
-        <f>_xlfn.CEILING.MATH(I18)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
@@ -1017,27 +1017,27 @@
         <v>2</v>
       </c>
       <c r="E19" s="2">
-        <f>B19*C19/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>167.48000000000002</v>
       </c>
       <c r="F19" s="2">
-        <f>E19/$D$3</f>
+        <f t="shared" si="7"/>
         <v>18.608888888888892</v>
       </c>
       <c r="G19" s="5">
-        <f>_xlfn.CEILING.MATH((B19/D19))</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="H19" s="2">
-        <f>G19*C19/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>84.800000000000011</v>
       </c>
       <c r="I19" s="2">
-        <f>H19/$D$3</f>
+        <f t="shared" si="10"/>
         <v>9.4222222222222243</v>
       </c>
       <c r="J19" s="5">
-        <f>_xlfn.CEILING.MATH(I19)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
@@ -1052,27 +1052,27 @@
         <v>2</v>
       </c>
       <c r="E20" s="2">
-        <f>B20*C20/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>260.76</v>
       </c>
       <c r="F20" s="2">
-        <f>E20/$D$3</f>
+        <f t="shared" si="7"/>
         <v>28.973333333333333</v>
       </c>
       <c r="G20" s="5">
-        <f>_xlfn.CEILING.MATH((B20/D20))</f>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="H20" s="2">
-        <f>G20*C20/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>131.44</v>
       </c>
       <c r="I20" s="2">
-        <f>H20/$D$3</f>
+        <f t="shared" si="10"/>
         <v>14.604444444444445</v>
       </c>
       <c r="J20" s="5">
-        <f>_xlfn.CEILING.MATH(I20)</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
@@ -1087,27 +1087,27 @@
         <v>3</v>
       </c>
       <c r="E21" s="2">
-        <f>B21*C21/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>83.740000000000009</v>
       </c>
       <c r="F21" s="2">
-        <f>E21/$D$3</f>
+        <f t="shared" si="7"/>
         <v>9.3044444444444458</v>
       </c>
       <c r="G21" s="5">
-        <f>_xlfn.CEILING.MATH((B21/D21))</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="H21" s="2">
-        <f>G21*C21/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>28.62</v>
       </c>
       <c r="I21" s="2">
-        <f>H21/$D$3</f>
+        <f t="shared" si="10"/>
         <v>3.18</v>
       </c>
       <c r="J21" s="5">
-        <f>_xlfn.CEILING.MATH(I21)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -1122,27 +1122,27 @@
         <v>3</v>
       </c>
       <c r="E22" s="2">
-        <f>B22*C22/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>130.38</v>
       </c>
       <c r="F22" s="2">
-        <f>E22/$D$3</f>
+        <f t="shared" si="7"/>
         <v>14.486666666666666</v>
       </c>
       <c r="G22" s="5">
-        <f>_xlfn.CEILING.MATH((B22/D22))</f>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="H22" s="2">
-        <f>G22*C22/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>43.46</v>
       </c>
       <c r="I22" s="2">
-        <f>H22/$D$3</f>
+        <f t="shared" si="10"/>
         <v>4.8288888888888888</v>
       </c>
       <c r="J22" s="5">
-        <f>_xlfn.CEILING.MATH(I22)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
@@ -1157,27 +1157,27 @@
         <v>3</v>
       </c>
       <c r="E23" s="2">
-        <f>B23*C23/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>167.48000000000002</v>
       </c>
       <c r="F23" s="2">
-        <f>E23/$D$3</f>
+        <f t="shared" si="7"/>
         <v>18.608888888888892</v>
       </c>
       <c r="G23" s="5">
-        <f>_xlfn.CEILING.MATH((B23/D23))</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="H23" s="2">
-        <f>G23*C23/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>57.24</v>
       </c>
       <c r="I23" s="2">
-        <f>H23/$D$3</f>
+        <f t="shared" si="10"/>
         <v>6.36</v>
       </c>
       <c r="J23" s="5">
-        <f>_xlfn.CEILING.MATH(I23)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
@@ -1192,27 +1192,27 @@
         <v>3</v>
       </c>
       <c r="E24" s="2">
-        <f>B24*C24/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>260.76</v>
       </c>
       <c r="F24" s="2">
-        <f>E24/$D$3</f>
+        <f t="shared" si="7"/>
         <v>28.973333333333333</v>
       </c>
       <c r="G24" s="5">
-        <f>_xlfn.CEILING.MATH((B24/D24))</f>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="H24" s="2">
-        <f>G24*C24/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>86.92</v>
       </c>
       <c r="I24" s="2">
-        <f>H24/$D$3</f>
+        <f t="shared" si="10"/>
         <v>9.6577777777777776</v>
       </c>
       <c r="J24" s="5">
-        <f>_xlfn.CEILING.MATH(I24)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
@@ -1227,27 +1227,27 @@
         <v>4</v>
       </c>
       <c r="E25" s="2">
-        <f>B25*C25/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>83.740000000000009</v>
       </c>
       <c r="F25" s="2">
-        <f>E25/$D$3</f>
+        <f t="shared" si="7"/>
         <v>9.3044444444444458</v>
       </c>
       <c r="G25" s="5">
-        <f>_xlfn.CEILING.MATH((B25/D25))</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H25" s="2">
-        <f>G25*C25/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>21.200000000000003</v>
       </c>
       <c r="I25" s="2">
-        <f>H25/$D$3</f>
+        <f t="shared" si="10"/>
         <v>2.3555555555555561</v>
       </c>
       <c r="J25" s="5">
-        <f>_xlfn.CEILING.MATH(I25)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -1262,27 +1262,27 @@
         <v>4</v>
       </c>
       <c r="E26" s="2">
-        <f>B26*C26/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>130.38</v>
       </c>
       <c r="F26" s="2">
-        <f>E26/$D$3</f>
+        <f t="shared" si="7"/>
         <v>14.486666666666666</v>
       </c>
       <c r="G26" s="5">
-        <f>_xlfn.CEILING.MATH((B26/D26))</f>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="H26" s="2">
-        <f>G26*C26/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>32.86</v>
       </c>
       <c r="I26" s="2">
-        <f>H26/$D$3</f>
+        <f t="shared" si="10"/>
         <v>3.6511111111111112</v>
       </c>
       <c r="J26" s="5">
-        <f>_xlfn.CEILING.MATH(I26)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -1297,27 +1297,27 @@
         <v>4</v>
       </c>
       <c r="E27" s="2">
-        <f>B27*C27/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>167.48000000000002</v>
       </c>
       <c r="F27" s="2">
-        <f>E27/$D$3</f>
+        <f t="shared" si="7"/>
         <v>18.608888888888892</v>
       </c>
       <c r="G27" s="5">
-        <f>_xlfn.CEILING.MATH((B27/D27))</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H27" s="2">
-        <f>G27*C27/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>42.400000000000006</v>
       </c>
       <c r="I27" s="2">
-        <f>H27/$D$3</f>
+        <f t="shared" si="10"/>
         <v>4.7111111111111121</v>
       </c>
       <c r="J27" s="5">
-        <f>_xlfn.CEILING.MATH(I27)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
         <v>4</v>
       </c>
       <c r="E28" s="2">
-        <f>B28*C28/60*$D$2</f>
+        <f t="shared" si="6"/>
         <v>260.76</v>
       </c>
       <c r="F28" s="2">
-        <f>E28/$D$3</f>
+        <f t="shared" si="7"/>
         <v>28.973333333333333</v>
       </c>
       <c r="G28" s="5">
-        <f>_xlfn.CEILING.MATH((B28/D28))</f>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="H28" s="2">
-        <f>G28*C28/60*$D$2</f>
+        <f t="shared" si="9"/>
         <v>65.72</v>
       </c>
       <c r="I28" s="2">
-        <f>H28/$D$3</f>
+        <f t="shared" si="10"/>
         <v>7.3022222222222224</v>
       </c>
       <c r="J28" s="5">
-        <f>_xlfn.CEILING.MATH(I28)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
     </row>
